--- a/biology/Botanique/Roridulaceae/Roridulaceae.xlsx
+++ b/biology/Botanique/Roridulaceae/Roridulaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Roridulaceae sont une famille de plantes à fleurs dicotylédones de l'ordre des Ericales. Elle comprend 2 ou 3 espèces du genre Roridula (en).
 Ce sont de petits arbustes, à feuilles allongées couvertes de poils collants qui retiennent des insectes. On peut les considérer comme des plantes carnivores indirectes car ces insectes sont consommés par une punaise du genre Pameridea dont les déjections sont absorbées par les feuilles, qui présentent des tissus spécialement adaptés.
@@ -515,10 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le nom vient du genre type Roridula, qui est un diminutif du latin roridus, « couvert de rosée », en référence à l'exsudat collant sécrété par les glandes ou les tentacules pédonculés qui garnissent les feuilles.
-Noms vernaculaires
-Dans la province du Cap-Occidental (Afrique du Sud), le genre est communément appelé en anglais « dewstick », « bâton de rosée » ou « fly bush », « buisson de mouche », et en langue afrikaans, « vlieë-bos » ou « vlieë-bossie », « buisson de mouche ».
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Roridula, qui est un diminutif du latin roridus, « couvert de rosée », en référence à l'exsudat collant sécrété par les glandes ou les tentacules pédonculés qui garnissent les feuilles.
 </t>
         </is>
       </c>
@@ -544,13 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Classification</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[1], cette famille n'existe pas, le genre Roridula étant situé dans la famille des Byblidacées et dans l'ordre des Rosales.
-La classification phylogénétique créé pour ce genre la famille des Roridulaceae et la situe dans l'ordre des Ericales.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la province du Cap-Occidental (Afrique du Sud), le genre est communément appelé en anglais « dewstick », « bâton de rosée » ou « fly bush », « buisson de mouche », et en langue afrikaans, « vlieë-bos » ou « vlieë-bossie », « buisson de mouche ».
 </t>
         </is>
       </c>
@@ -576,13 +596,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Liste des genres</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (30 Jun 2010)[2], NCBI  (30 Jun 2010)[3] et DELTA Angio           (30 Jun 2010)[4] :
-Roridula (en) Burm.f. ex L.</t>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), cette famille n'existe pas, le genre Roridula étant situé dans la famille des Byblidacées et dans l'ordre des Rosales.
+La classification phylogénétique créé pour ce genre la famille des Roridulaceae et la situe dans l'ordre des Ericales.
+</t>
         </is>
       </c>
     </row>
@@ -607,12 +630,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (30 Jun 2010), NCBI  (30 Jun 2010) et DELTA Angio           (30 Jun 2010) :
+Roridula (en) Burm.f. ex L.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Roridulaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roridulaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (30 Jun 2010)[3] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (30 Jun 2010) :
 genre Roridula
 Roridula dentata
 Roridula gorgonias
